--- a/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:12+00:00</t>
+    <t>2023-02-06T06:48:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:27+00:00</t>
+    <t>2023-02-06T11:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1407,7 +1407,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
